--- a/test_youtube/done/groundtruth/face5_01_jaysbabyfood.xlsx
+++ b/test_youtube/done/groundtruth/face5_01_jaysbabyfood.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EGAT\Desktop\done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EGAT\Documents\GitHub\AICARE\test_youtube\done\groundtruth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC25B90-E4B1-4BEF-A8D7-012F56F42426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D7930A-58A4-4019-A932-8926BE19C6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -259,9 +259,6 @@
     <t>8.29-8.32</t>
   </si>
   <si>
-    <t>8.36-3.38</t>
-  </si>
-  <si>
     <t>8.39-8.42</t>
   </si>
   <si>
@@ -506,6 +503,9 @@
   </si>
   <si>
     <t>13.18-13.19</t>
+  </si>
+  <si>
+    <t>8.36-8.38</t>
   </si>
 </sst>
 </file>
@@ -835,8 +835,8 @@
   </sheetPr>
   <dimension ref="A1:B155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="H141" sqref="H141"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -847,10 +847,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -1047,7 +1047,7 @@
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>1</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>27</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>1</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>39</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>15</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>15</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>27</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>15</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>15</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>39</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>39</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>27</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>15</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>25</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>15</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>3</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>15</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>27</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>3</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>15</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>27</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>15</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>15</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="98" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>27</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>3</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="100" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>15</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="101" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>3</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="102" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>15</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="103" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>15</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="104" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>15</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>27</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="106" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>15</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="107" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>15</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="108" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>27</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="109" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>39</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="110" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>27</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="111" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>15</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="112" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>27</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="113" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>15</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="114" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>27</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="115" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>1</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="116" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>15</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="117" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="118" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>3</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="119" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>27</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="120" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>3</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="121" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>39</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="122" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>27</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="123" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>1</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="124" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>15</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="125" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>27</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="126" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>27</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="127" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>15</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="128" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>15</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="129" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>15</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="130" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>39</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="131" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>39</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="132" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>39</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="133" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>27</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="134" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>39</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="135" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>1</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="136" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>39</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="137" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>25</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="138" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>25</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="139" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>25</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="140" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>39</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="141" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>27</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="142" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>15</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="143" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>27</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="144" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>39</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="145" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>3</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="146" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>1</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="147" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>15</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="148" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>1</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="149" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>27</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="150" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>15</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="151" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>3</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="152" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>27</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="153" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>39</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="154" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>3</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="155" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>1</v>
